--- a/files/eval.xlsx
+++ b/files/eval.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02780695632100105</v>
+        <v>0.01965093240141869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001496373908594251</v>
+        <v>0.0007916485192254186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03864843770861626</v>
+        <v>0.02768534049391747</v>
       </c>
     </row>
   </sheetData>

--- a/files/eval.xlsx
+++ b/files/eval.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01965093240141869</v>
+        <v>0.03604744747281075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007916485192254186</v>
+        <v>0.00178485841024667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02768534049391747</v>
+        <v>0.04246816784143448</v>
       </c>
     </row>
   </sheetData>

--- a/files/eval.xlsx
+++ b/files/eval.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03604744747281075</v>
+        <v>0.01686155796051025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00178485841024667</v>
+        <v>0.0006712955655530095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04246816784143448</v>
+        <v>0.02534263581037521</v>
       </c>
     </row>
   </sheetData>

--- a/files/eval.xlsx
+++ b/files/eval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,24 +444,16 @@
           <t>mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01686155796051025</v>
+        <v>0.01824741065502167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006712955655530095</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02534263581037521</v>
+        <v>0.0007521167863160372</v>
       </c>
     </row>
   </sheetData>

--- a/files/eval.xlsx
+++ b/files/eval.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01824741065502167</v>
+        <v>0.01602029427886009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007521167863160372</v>
+        <v>0.0005539230187423527</v>
       </c>
     </row>
   </sheetData>
